--- a/template/POR/country_data.xlsx
+++ b/template/POR/country_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caine\OneDrive - Pan American Health Organization\WDC\Polio\2023\AR municipal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivermazariegos/Sites/polio-risk-assessment/template/POR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A580F5D-C89D-4CB2-BD1B-594F949C20F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3530852A-C969-734B-AD06-A0F29B03BBA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{7CFA64C4-648F-B840-901A-EC2D94882293}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="22780" windowHeight="14660" xr2:uid="{7CFA64C4-648F-B840-901A-EC2D94882293}"/>
   </bookViews>
   <sheets>
     <sheet name="1-Geral" sheetId="1" r:id="rId1"/>
@@ -1146,9 +1146,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1186,7 +1186,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1292,7 +1292,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1434,7 +1434,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1445,15 +1445,15 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="56.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
@@ -1461,19 +1461,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>58</v>
       </c>
@@ -1481,13 +1481,13 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>60</v>
       </c>
@@ -1500,18 +1500,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4BC92D02-843F-244F-9460-E090EF2C7C0A}">
-          <x14:formula1>
-            <xm:f>_ListValues!$B$2:$B$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>B6</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1523,19 +1511,19 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.58203125" customWidth="1"/>
-    <col min="2" max="2" width="19.08203125" customWidth="1"/>
-    <col min="3" max="3" width="21.58203125" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
     <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="15.58203125" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -1561,7 +1549,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="5"/>
@@ -1571,7 +1559,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="5"/>
@@ -1581,7 +1569,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="5"/>
@@ -1591,7 +1579,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="5"/>
@@ -1601,7 +1589,7 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="5"/>
@@ -1611,7 +1599,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="5"/>
@@ -1634,7 +1622,7 @@
       <selection activeCell="H1" sqref="H1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="16.83203125" customWidth="1"/>
@@ -1643,10 +1631,10 @@
     <col min="5" max="5" width="14.5" customWidth="1"/>
     <col min="6" max="6" width="14.83203125" customWidth="1"/>
     <col min="9" max="13" width="11.33203125" customWidth="1"/>
-    <col min="15" max="15" width="20.9140625" customWidth="1"/>
+    <col min="15" max="15" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="49" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
@@ -1685,7 +1673,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="60"/>
       <c r="B2" s="60"/>
       <c r="C2" s="56"/>
@@ -1712,7 +1700,7 @@
       <c r="N2" s="54"/>
       <c r="O2" s="54"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="2"/>
@@ -1729,7 +1717,7 @@
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="2"/>
@@ -1746,7 +1734,7 @@
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="2"/>
@@ -1763,7 +1751,7 @@
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="2"/>
@@ -1780,7 +1768,7 @@
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="2"/>
@@ -1797,7 +1785,7 @@
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="2"/>
@@ -1848,18 +1836,18 @@
       <selection activeCell="H1" sqref="H1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.83203125" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="3" max="3" width="18.83203125" customWidth="1"/>
     <col min="4" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="25.58203125" customWidth="1"/>
+    <col min="9" max="9" width="25.5" customWidth="1"/>
     <col min="10" max="14" width="18.83203125" customWidth="1"/>
     <col min="15" max="15" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="64" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
@@ -1898,7 +1886,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="91" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="91" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="60"/>
       <c r="B2" s="60"/>
       <c r="C2" s="56"/>
@@ -1929,7 +1917,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="2"/>
@@ -1946,7 +1934,7 @@
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="2"/>
@@ -1963,7 +1951,7 @@
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="2"/>
@@ -1980,7 +1968,7 @@
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="2"/>
@@ -1997,7 +1985,7 @@
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="2"/>
@@ -2014,7 +2002,7 @@
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="2"/>
@@ -2063,14 +2051,14 @@
       <selection activeCell="H1" sqref="H1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="20.83203125" customWidth="1"/>
     <col min="5" max="7" width="12.83203125" customWidth="1"/>
     <col min="8" max="10" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
@@ -2102,7 +2090,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="60"/>
       <c r="B2" s="60"/>
       <c r="C2" s="56"/>
@@ -2118,7 +2106,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="2"/>
@@ -2130,7 +2118,7 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="2"/>
@@ -2142,7 +2130,7 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="2"/>
@@ -2154,7 +2142,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="2"/>
@@ -2166,7 +2154,7 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="2"/>
@@ -2178,7 +2166,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="2"/>
@@ -2221,15 +2209,15 @@
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="21.5" customWidth="1"/>
     <col min="5" max="7" width="13.83203125" customWidth="1"/>
     <col min="8" max="8" width="21.5" customWidth="1"/>
-    <col min="9" max="9" width="15.08203125" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
@@ -2263,7 +2251,7 @@
       <c r="M1" s="64"/>
       <c r="N1" s="64"/>
     </row>
-    <row r="2" spans="1:14" ht="49" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="60"/>
       <c r="B2" s="60"/>
       <c r="C2" s="56"/>
@@ -2291,7 +2279,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="2"/>
@@ -2307,7 +2295,7 @@
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="2"/>
@@ -2323,7 +2311,7 @@
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="2"/>
@@ -2339,7 +2327,7 @@
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="2"/>
@@ -2355,7 +2343,7 @@
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="2"/>
@@ -2371,7 +2359,7 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="2"/>
@@ -2428,16 +2416,16 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.58203125" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="27.83203125" style="51" customWidth="1"/>
-    <col min="3" max="3" width="27.08203125" style="52" customWidth="1"/>
+    <col min="3" max="3" width="27" style="52" customWidth="1"/>
     <col min="4" max="4" width="19" style="52" customWidth="1"/>
     <col min="5" max="5" width="50" style="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>31</v>
       </c>
@@ -2454,7 +2442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="73" t="s">
         <v>21</v>
       </c>
@@ -2465,7 +2453,7 @@
       <c r="D2" s="21"/>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="74"/>
       <c r="B3" s="23" t="s">
         <v>2</v>
@@ -2474,7 +2462,7 @@
       <c r="D3" s="24"/>
       <c r="E3" s="25"/>
     </row>
-    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="74"/>
       <c r="B4" s="26" t="s">
         <v>14</v>
@@ -2487,7 +2475,7 @@
       </c>
       <c r="E4" s="25"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="74"/>
       <c r="B5" s="23" t="s">
         <v>15</v>
@@ -2500,7 +2488,7 @@
       </c>
       <c r="E5" s="25"/>
     </row>
-    <row r="6" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="75"/>
       <c r="B6" s="29" t="s">
         <v>16</v>
@@ -2513,7 +2501,7 @@
       </c>
       <c r="E6" s="32"/>
     </row>
-    <row r="7" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="75"/>
       <c r="B7" s="29" t="s">
         <v>17</v>
@@ -2526,7 +2514,7 @@
       </c>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="76"/>
       <c r="B8" s="29" t="s">
         <v>18</v>
@@ -2539,7 +2527,7 @@
       </c>
       <c r="E8" s="33"/>
     </row>
-    <row r="9" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" s="77" t="s">
         <v>20</v>
       </c>
@@ -2556,7 +2544,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="27" t="s">
         <v>85</v>
@@ -2569,7 +2557,7 @@
       </c>
       <c r="E10" s="37"/>
     </row>
-    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="27" t="s">
         <v>86</v>
@@ -2582,7 +2570,7 @@
       </c>
       <c r="E11" s="38"/>
     </row>
-    <row r="12" spans="1:5" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="79"/>
       <c r="B12" s="30" t="s">
         <v>88</v>
@@ -2597,7 +2585,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A13" s="65" t="s">
         <v>29</v>
       </c>
@@ -2614,7 +2602,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A14" s="66"/>
       <c r="B14" s="27" t="s">
         <v>23</v>
@@ -2629,7 +2617,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A15" s="66"/>
       <c r="B15" s="27" t="s">
         <v>24</v>
@@ -2644,7 +2632,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A16" s="66"/>
       <c r="B16" s="27" t="s">
         <v>25</v>
@@ -2659,7 +2647,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A17" s="66"/>
       <c r="B17" s="27" t="s">
         <v>26</v>
@@ -2674,7 +2662,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A18" s="66"/>
       <c r="B18" s="27" t="s">
         <v>95</v>
@@ -2689,7 +2677,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" ht="113" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="67"/>
       <c r="B19" s="40" t="s">
         <v>96</v>
@@ -2704,7 +2692,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" ht="145" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="68" t="s">
         <v>8</v>
       </c>
@@ -2721,7 +2709,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" ht="113" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="69"/>
       <c r="B21" s="45" t="s">
         <v>73</v>
@@ -2736,7 +2724,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="70" t="s">
         <v>100</v>
       </c>
@@ -2751,7 +2739,7 @@
       </c>
       <c r="E22" s="46"/>
     </row>
-    <row r="23" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="71"/>
       <c r="B23" s="47" t="s">
         <v>9</v>
@@ -2764,7 +2752,7 @@
       </c>
       <c r="E23" s="37"/>
     </row>
-    <row r="24" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="71"/>
       <c r="B24" s="47" t="s">
         <v>4</v>
@@ -2777,7 +2765,7 @@
       </c>
       <c r="E24" s="37"/>
     </row>
-    <row r="25" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="71"/>
       <c r="B25" s="47" t="s">
         <v>76</v>
@@ -2790,7 +2778,7 @@
       </c>
       <c r="E25" s="37"/>
     </row>
-    <row r="26" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="72"/>
       <c r="B26" s="45" t="s">
         <v>77</v>
@@ -2803,7 +2791,7 @@
       </c>
       <c r="E26" s="48"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>30</v>
       </c>
@@ -2833,9 +2821,9 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -2846,7 +2834,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2857,7 +2845,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2868,22 +2856,22 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" s="17" t="s">
         <v>77</v>
       </c>

--- a/template/POR/country_data.xlsx
+++ b/template/POR/country_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivermazariegos/Sites/polio-risk-assessment/template/POR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://paho-my.sharepoint.com/personal/caine_paho_org/Documents/WDC/Polio/2024/AR municipal/polio-risk-assessment-main/template/POR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3530852A-C969-734B-AD06-A0F29B03BBA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{3530852A-C969-734B-AD06-A0F29B03BBA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A18D8F63-5683-45A4-A6F7-FFF89A183765}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="22780" windowHeight="14660" xr2:uid="{7CFA64C4-648F-B840-901A-EC2D94882293}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" firstSheet="1" activeTab="6" xr2:uid="{7CFA64C4-648F-B840-901A-EC2D94882293}"/>
   </bookViews>
   <sheets>
     <sheet name="1-Geral" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="97">
   <si>
     <t>Valor</t>
   </si>
@@ -102,9 +102,6 @@
     <t>População &lt;15 anos de idade</t>
   </si>
   <si>
-    <t>Se a população &lt;15 anos de idade é &lt;100.000, apresentaram casos de PFA em 2023?</t>
-  </si>
-  <si>
     <t>Imunidade</t>
   </si>
   <si>
@@ -165,15 +162,9 @@
     <t>Número de crianças menores de 15 anos no município.</t>
   </si>
   <si>
-    <t>Para municípios com menos de 100.000 crianças menores de 15 anos, determinar se ocorreram casos de PFA em 2023.</t>
-  </si>
-  <si>
     <t>Cobertura administrativa da Poliomielite3 para o ano correspondente</t>
   </si>
   <si>
-    <t>Taxa PFA do município em 2023</t>
-  </si>
-  <si>
     <t>Nos municípios com menos de 100 mil crianças menores de 15 anos e que não apresentaram casos de PFA, determinar se foram realizadas buscas institucionais ativas em pelo menos uma unidade de saúde do município.</t>
   </si>
   <si>
@@ -204,9 +195,6 @@
     <t>Esta célula só deverá ser preenchida para municípios com &gt;100.000 crianças menores de 15 anos ou municípios com &lt;100.000 mas que tenham tido casos de PFA em 2023. Para municípios com &lt;100.000 crianças menores de 15 anos e que não tenham tido casos de PFA em 2023, a célula ficará cinza e você não precisará preencher nenhuma informação.</t>
   </si>
   <si>
-    <t>Esta célula só deverá ser preenchida para municípios com &lt;100 mil crianças menores de 15 anos e que não tenham tido casos de PFA em 2023</t>
-  </si>
-  <si>
     <t>Se o país não teve campanhas de vacinação contra a poliomielite, selecione NA. Se diversas campanhas foram realizadas, selecione a cobertura da campanha mais recente.</t>
   </si>
   <si>
@@ -231,32 +219,12 @@
     <t>População total</t>
   </si>
   <si>
-    <t>Se a população &lt;15 anos de idade for &lt;100.000, houve algum caso de PFA em 2023?</t>
-  </si>
-  <si>
     <t>Cobertura administrativa da poliomielite 3 por município</t>
   </si>
   <si>
-    <t>Percentual de cobertura com IPV2 2023</t>
-  </si>
-  <si>
-    <t>Se o país realizasse uma campanha de vacinação contra a poliomielite em 2019-2023, a cobertura &gt;95% foi alcançada no município?</t>
-  </si>
-  <si>
-    <t>% de unidades notificadoras que enviaram informações em todas as semanas do período avaliado (2023)</t>
-  </si>
-  <si>
-    <t>Vigilância PFA
-(para municípios com &gt;100.000 crianças menores de 15 anos de idade OU municípios com &lt;100.000 crianças menores de 15 anos de idade que tiveram casos de PFA em 2023)</t>
-  </si>
-  <si>
     <t>% de casos com amostra de fezes adequada</t>
   </si>
   <si>
-    <t>Busca institucional ativa
-(para municípios com &lt;100.000 crianças menores de 15 anos SEM casos de PFA em 2023)</t>
-  </si>
-  <si>
     <t>População com acesso a serviços básicos de água potável</t>
   </si>
   <si>
@@ -302,21 +270,6 @@
     <t>Febre Amarela</t>
   </si>
   <si>
-    <t>Cob. Adm. Pólio3 2019, 2020, 2021, 2022 e 2023</t>
-  </si>
-  <si>
-    <t>Cobertura  com VIP2 2023</t>
-  </si>
-  <si>
-    <t>Cobertura administrativa para VIP2 em 2023</t>
-  </si>
-  <si>
-    <t>Se o país realizou campanha de vacinação contra a poliomielite no período de  2019-2023, alcançou uma cobertura maior ou igual a 95% no municipio?</t>
-  </si>
-  <si>
-    <t>Para países onde foi realizada campanha de vacinação contra poliomielite entre 2019 e 2023, definir se a cobertura alcançada no município foi maior ou igual a 95%</t>
-  </si>
-  <si>
     <t>Percentual de unidades notificadoras que enviaram informação em todas as semanas do ano.</t>
   </si>
   <si>
@@ -351,6 +304,36 @@
   </si>
   <si>
     <t>POR</t>
+  </si>
+  <si>
+    <t>Se a população &lt;15 anos de idade é &lt;100.000, apresentaram casos de PFA em 2024?</t>
+  </si>
+  <si>
+    <t>Cob. Adm. Pólio3 2020, 2021, 2022, 2023 e 2024.</t>
+  </si>
+  <si>
+    <t>Cobertura  com VIP2 2024</t>
+  </si>
+  <si>
+    <t>Se o país realizou campanha de vacinação contra a poliomielite no período de  2020-2024, alcançou uma cobertura maior ou igual a 95% no municipio?</t>
+  </si>
+  <si>
+    <t>Para municípios com menos de 100.000 crianças menores de 15 anos, determinar se ocorreram casos de PFA em 2024.</t>
+  </si>
+  <si>
+    <t>Cobertura administrativa para VIP2 para o ano correspondente</t>
+  </si>
+  <si>
+    <t>Para países onde foi realizada campanha de vacinação contra poliomielite entre 2020 e 2024, definir se a cobertura alcançada no município foi maior ou igual a 95%</t>
+  </si>
+  <si>
+    <t>Taxa PFA do município para o ano correspondente</t>
+  </si>
+  <si>
+    <t>Esta célula só deverá ser preenchida para municípios com &gt;100.000 crianças menores de 15 anos ou municípios com &lt;100.000 mas que tenham tido casos de PFA em 2024. Para municípios com &lt;100.000 crianças menores de 15 anos e que não tenham tido casos de PFA em 2024, a célula ficará cinza e você não precisará preencher nenhuma informação.</t>
+  </si>
+  <si>
+    <t>Esta célula só deverá ser preenchida para municípios com &lt;100 mil crianças menores de 15 anos e que não tenham tido casos de PFA em 2024</t>
   </si>
 </sst>
 </file>
@@ -1146,9 +1129,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1186,7 +1169,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1292,7 +1275,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1434,7 +1417,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1444,52 +1427,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18904028-F9F6-3046-9356-B730934F1CDF}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="56.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B6" s="2"/>
     </row>
@@ -1511,7 +1496,7 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
@@ -1523,7 +1508,7 @@
     <col min="8" max="8" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -1546,10 +1531,10 @@
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="5"/>
@@ -1559,7 +1544,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="5"/>
@@ -1569,7 +1554,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="5"/>
@@ -1579,7 +1564,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="5"/>
@@ -1589,7 +1574,7 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="5"/>
@@ -1599,7 +1584,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="5"/>
@@ -1619,10 +1604,10 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H2"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="16.83203125" customWidth="1"/>
@@ -1630,11 +1615,12 @@
     <col min="4" max="4" width="20.5" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
     <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="19.08203125" customWidth="1"/>
     <col min="9" max="13" width="11.33203125" customWidth="1"/>
     <col min="15" max="15" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
@@ -1656,24 +1642,27 @@
       <c r="G1" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="57" t="s">
-        <v>62</v>
+      <c r="H1" s="57" t="str">
+        <f>"Se a população &lt;15 anos de idade for &lt;100.000, houve algum caso de PFA em "&amp;'1-Geral'!B3&amp;"?"</f>
+        <v>Se a população &lt;15 anos de idade for &lt;100.000, houve algum caso de PFA em 2024?</v>
       </c>
       <c r="I1" s="53" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J1" s="53"/>
       <c r="K1" s="53"/>
       <c r="L1" s="53"/>
       <c r="M1" s="53"/>
-      <c r="N1" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="O1" s="53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N1" s="53" t="str">
+        <f>"Percentual de cobertura com IPV2 "&amp;'1-Geral'!B3</f>
+        <v>Percentual de cobertura com IPV2 2024</v>
+      </c>
+      <c r="O1" s="53" t="str">
+        <f>"Se o país realizasse uma campanha de vacinação contra a poliomielite em "&amp;'1-Geral'!B3-4&amp;"-"&amp;'1-Geral'!B3&amp;", a cobertura &gt;95% foi alcançada no município?"</f>
+        <v>Se o país realizasse uma campanha de vacinação contra a poliomielite em 2020-2024, a cobertura &gt;95% foi alcançada no município?</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="60"/>
       <c r="B2" s="60"/>
       <c r="C2" s="56"/>
@@ -1683,24 +1672,29 @@
       <c r="G2" s="56"/>
       <c r="H2" s="58"/>
       <c r="I2" s="11">
-        <v>2019</v>
+        <f>'1-Geral'!B3-4</f>
+        <v>2020</v>
       </c>
       <c r="J2" s="11">
-        <v>2020</v>
+        <f>'1-Geral'!B3-3</f>
+        <v>2021</v>
       </c>
       <c r="K2" s="11">
-        <v>2021</v>
+        <f>'1-Geral'!B3-2</f>
+        <v>2022</v>
       </c>
       <c r="L2" s="11">
-        <v>2022</v>
+        <f>'1-Geral'!B3-1</f>
+        <v>2023</v>
       </c>
       <c r="M2" s="11">
-        <v>2023</v>
+        <f>'1-Geral'!B3</f>
+        <v>2024</v>
       </c>
       <c r="N2" s="54"/>
       <c r="O2" s="54"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="2"/>
@@ -1717,7 +1711,7 @@
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="2"/>
@@ -1734,7 +1728,7 @@
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="2"/>
@@ -1751,7 +1745,7 @@
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="2"/>
@@ -1768,7 +1762,7 @@
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="2"/>
@@ -1785,7 +1779,7 @@
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="2"/>
@@ -1832,11 +1826,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A24FC60A-8114-B04C-B5D4-941061AFF1F9}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.83203125" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
@@ -1847,7 +1841,7 @@
     <col min="15" max="15" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="64" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
@@ -1869,24 +1863,31 @@
       <c r="G1" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="57" t="s">
-        <v>62</v>
+      <c r="H1" s="57" t="str">
+        <f>"Se a população &lt;15 anos de idade for &lt;100.000, houve algum caso de PFA em "&amp;'1-Geral'!B3&amp;"?"</f>
+        <v>Se a população &lt;15 anos de idade for &lt;100.000, houve algum caso de PFA em 2024?</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="61" t="s">
-        <v>67</v>
+      <c r="J1" s="61" t="str">
+        <f>"Vigilância PFA
+(para municípios com &gt;100.000 crianças menores de 15 anos de idade OU municípios com &lt;100.000 crianças menores de 15 anos de idade que tiveram casos de PFA em "&amp;'1-Geral'!B3&amp;")"</f>
+        <v>Vigilância PFA
+(para municípios com &gt;100.000 crianças menores de 15 anos de idade OU municípios com &lt;100.000 crianças menores de 15 anos de idade que tiveram casos de PFA em 2024)</v>
       </c>
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
       <c r="M1" s="62"/>
       <c r="N1" s="62"/>
-      <c r="O1" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="91" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O1" s="14" t="str">
+        <f>"Busca institucional ativa
+(para municípios com &lt;100.000 crianças menores de 15 anos SEM casos de PFA em "&amp;'1-Geral'!B3&amp;")"</f>
+        <v>Busca institucional ativa
+(para municípios com &lt;100.000 crianças menores de 15 anos SEM casos de PFA em 2024)</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="91" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="60"/>
       <c r="B2" s="60"/>
       <c r="C2" s="56"/>
@@ -1895,29 +1896,30 @@
       <c r="F2" s="56"/>
       <c r="G2" s="56"/>
       <c r="H2" s="58"/>
-      <c r="I2" s="14" t="s">
-        <v>66</v>
+      <c r="I2" s="14" t="str">
+        <f>"% de unidades notificadoras que enviaram informações em todas as semanas do período avaliado ("&amp;'1-Geral'!B3&amp;")"</f>
+        <v>% de unidades notificadoras que enviaram informações em todas as semanas do período avaliado (2024)</v>
       </c>
       <c r="J2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="M2" s="14" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="N2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="2"/>
@@ -1934,7 +1936,7 @@
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="2"/>
@@ -1951,7 +1953,7 @@
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="2"/>
@@ -1968,7 +1970,7 @@
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="2"/>
@@ -1985,7 +1987,7 @@
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="2"/>
@@ -2002,7 +2004,7 @@
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="2"/>
@@ -2048,17 +2050,17 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="4" width="20.83203125" customWidth="1"/>
     <col min="5" max="7" width="12.83203125" customWidth="1"/>
     <col min="8" max="10" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
@@ -2080,17 +2082,18 @@
       <c r="G1" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="57" t="str">
+        <f>"Se a população &lt;15 anos de idade for &lt;100.000, houve algum caso de PFA em "&amp;'1-Geral'!B3&amp;"?"</f>
+        <v>Se a população &lt;15 anos de idade for &lt;100.000, houve algum caso de PFA em 2024?</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="60"/>
       <c r="B2" s="60"/>
       <c r="C2" s="56"/>
@@ -2100,13 +2103,13 @@
       <c r="G2" s="56"/>
       <c r="H2" s="58"/>
       <c r="I2" s="16" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="2"/>
@@ -2118,7 +2121,7 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="2"/>
@@ -2130,7 +2133,7 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="2"/>
@@ -2142,7 +2145,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="2"/>
@@ -2154,7 +2157,7 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="2"/>
@@ -2166,7 +2169,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="2"/>
@@ -2205,11 +2208,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5205DBED-7CB8-CA49-87DC-8975752A1842}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="4" width="21.5" customWidth="1"/>
     <col min="5" max="7" width="13.83203125" customWidth="1"/>
@@ -2217,7 +2220,7 @@
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
@@ -2239,11 +2242,12 @@
       <c r="G1" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="57" t="s">
-        <v>62</v>
+      <c r="H1" s="57" t="str">
+        <f>"Se a população &lt;15 anos de idade for &lt;100.000, houve algum caso de PFA em "&amp;'1-Geral'!B3&amp;"?"</f>
+        <v>Se a população &lt;15 anos de idade for &lt;100.000, houve algum caso de PFA em 2024?</v>
       </c>
       <c r="I1" s="63" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="J1" s="64"/>
       <c r="K1" s="64"/>
@@ -2251,7 +2255,7 @@
       <c r="M1" s="64"/>
       <c r="N1" s="64"/>
     </row>
-    <row r="2" spans="1:14" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="60"/>
       <c r="B2" s="60"/>
       <c r="C2" s="56"/>
@@ -2264,7 +2268,7 @@
         <v>13</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>9</v>
@@ -2273,13 +2277,13 @@
         <v>4</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="2"/>
@@ -2295,7 +2299,7 @@
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="2"/>
@@ -2311,7 +2315,7 @@
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="2"/>
@@ -2327,7 +2331,7 @@
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="2"/>
@@ -2343,7 +2347,7 @@
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="2"/>
@@ -2359,7 +2363,7 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="2"/>
@@ -2412,11 +2416,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24261340-693F-D844-8FDC-79D93DCEE3FF}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="27.83203125" style="51" customWidth="1"/>
@@ -2425,26 +2429,26 @@
     <col min="5" max="5" width="50" style="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>33</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>34</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="73" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>1</v>
@@ -2453,7 +2457,7 @@
       <c r="D2" s="21"/>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="74"/>
       <c r="B3" s="23" t="s">
         <v>2</v>
@@ -2462,338 +2466,338 @@
       <c r="D3" s="24"/>
       <c r="E3" s="25"/>
     </row>
-    <row r="4" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="74"/>
       <c r="B4" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="25"/>
     </row>
-    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="74"/>
       <c r="B5" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="25"/>
     </row>
-    <row r="6" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="75"/>
       <c r="B6" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="31" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="32"/>
     </row>
-    <row r="7" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="75"/>
       <c r="B7" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="31" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="76"/>
       <c r="B8" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="31" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="33"/>
     </row>
-    <row r="9" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A9" s="77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="78"/>
       <c r="B10" s="27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="28" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="37"/>
     </row>
-    <row r="11" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="78"/>
       <c r="B11" s="27" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="38"/>
     </row>
-    <row r="12" spans="1:5" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="79"/>
       <c r="B12" s="30" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D12" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A14" s="66"/>
       <c r="B14" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A15" s="66"/>
       <c r="B15" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="D15" s="27" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A16" s="66"/>
       <c r="B16" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D16" s="27" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A17" s="66"/>
       <c r="B17" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D17" s="27" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A18" s="66"/>
       <c r="B18" s="27" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="113" thickBot="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="67"/>
       <c r="B19" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="145" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="68" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D20" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="44" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="113" thickBot="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="69"/>
       <c r="B21" s="45" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="44" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="70" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E22" s="46"/>
     </row>
-    <row r="23" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="71"/>
       <c r="B23" s="47" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E23" s="37"/>
     </row>
-    <row r="24" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="71"/>
       <c r="B24" s="47" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="43" t="s">
-        <v>49</v>
-      </c>
       <c r="E24" s="37"/>
     </row>
-    <row r="25" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="71"/>
       <c r="B25" s="47" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E25" s="37"/>
     </row>
-    <row r="26" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="72"/>
       <c r="B26" s="45" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D26" s="43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E26" s="48"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="49"/>
       <c r="C27" s="50"/>
@@ -2821,59 +2825,59 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C6" s="17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C7" s="17" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
